--- a/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83ADB5D-2A59-C641-AE6B-FB9617212DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A4A72-FCC8-2742-87B9-D76C31087A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="18660" windowHeight="20280" activeTab="15" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="18660" windowHeight="20280" firstSheet="10" activeTab="14" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="430">
   <si>
     <t>Question</t>
   </si>
@@ -1332,6 +1332,15 @@
   </si>
   <si>
     <t>FHQ Aunt/Uncle: ParticipantAuntFirstName…</t>
+  </si>
+  <si>
+    <t>Aunt/Uncle First Initial of LAST Name Value</t>
+  </si>
+  <si>
+    <t>Aunt/Uncle Vital Status Value</t>
+  </si>
+  <si>
+    <t>Aunt/Uncle First Name Value</t>
   </si>
 </sst>
 </file>
@@ -7087,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90F0027-F00B-1B4B-AE3D-053640C4AD50}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -7980,7 +7989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686FEE5D-0F02-AC40-AA06-77804C89CACF}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -13126,10 +13135,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D440C8FC-FCC1-A240-91E3-288B715C9C66}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -13289,7 +13298,7 @@
         <v>409</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -13297,7 +13306,7 @@
         <v>410</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -13318,209 +13327,209 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>260</v>
+        <v>427</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="132" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>413</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1900</v>
+        <v>266</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="132" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -13528,559 +13537,583 @@
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1900</v>
+        <v>173</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="76" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="82" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1900</v>
+        <v>166</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="84" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B97" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="100" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="66" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>424</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>403</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>397</v>
+        <v>47</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>336</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14091,10 +14124,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1A7AA-D469-814C-86B3-A8D7D6B424B5}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -14244,6 +14277,9 @@
       <c r="A18" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -14281,221 +14317,215 @@
       <c r="A23" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>260</v>
+        <v>427</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="132" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>413</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1900</v>
+        <v>266</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="132" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -14503,559 +14533,583 @@
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="5" customFormat="1" ht="132" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="5" customFormat="1" ht="132" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1900</v>
+        <v>173</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="76" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="82" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1900</v>
+        <v>166</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="84" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B97" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="100" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="66" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>425</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>397</v>
+        <v>47</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>336</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15068,8 +15122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C165AD-8F20-F342-8EE0-C1843FC10E3A}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView topLeftCell="A19" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -15314,7 +15368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="88" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="110" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>

--- a/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796A4A72-FCC8-2742-87B9-D76C31087A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0783C976-20E4-5C49-B021-481A2BE0E878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="18660" windowHeight="20280" firstSheet="10" activeTab="14" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="18660" windowHeight="20280" activeTab="2" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="441">
   <si>
     <t>Question</t>
   </si>
@@ -1341,6 +1341,39 @@
   </si>
   <si>
     <t>Aunt/Uncle First Name Value</t>
+  </si>
+  <si>
+    <t>Has this relative ever been diagnosed with a benign tumor?</t>
+  </si>
+  <si>
+    <t>Has this relative ever been diagnosed with a benign tumor Value</t>
+  </si>
+  <si>
+    <t>Please select the 'Add' button below to add each benign tumor this relative has had.</t>
+  </si>
+  <si>
+    <t>Benign Tumor</t>
+  </si>
+  <si>
+    <t>Specify other benign tumor</t>
+  </si>
+  <si>
+    <t>Benign Tumor option selected</t>
+  </si>
+  <si>
+    <t>Atypical Spitz tumor</t>
+  </si>
+  <si>
+    <t>Year of diagnosis for Benign Tumor selected</t>
+  </si>
+  <si>
+    <t>Age of diagnosis for Benign Tumor selected</t>
+  </si>
+  <si>
+    <t>Additional Information added for Benign Tumor</t>
+  </si>
+  <si>
+    <t>No extra Information for Benign Tumor</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9316003E-8C1B-C646-9C81-76A5577493AC}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:B121"/>
+    <sheetView topLeftCell="A88" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3157,161 +3190,231 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="113" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="117" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="118" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="119" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="120" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B120" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="121" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+    <row r="123" spans="1:2" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B123" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+    <row r="124" spans="1:2" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+    <row r="125" spans="1:2" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
+    <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+    <row r="127" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3322,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E1A8D1-EF16-614B-9787-207F67568443}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A88" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -4110,161 +4213,231 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>170</v>
+        <v>437</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4275,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481BEE8-084A-6544-B91F-4F54426F0338}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:B121"/>
+    <sheetView topLeftCell="A91" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -5061,158 +5234,227 @@
     </row>
     <row r="102" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>170</v>
+        <v>437</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>393</v>
+        <v>187</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>393</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>395</v>
+        <v>188</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5223,10 +5465,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FE5151-D152-9D4A-B20B-CB625C7763F4}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -6027,161 +6269,231 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="88" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>170</v>
+        <v>437</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B111" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6192,10 +6504,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200F2574-0F76-5848-B5CA-B19DBB029645}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -6905,185 +7217,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="104" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="66" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B104" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7094,10 +7475,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90F0027-F00B-1B4B-AE3D-053640C4AD50}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD38"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -7798,185 +8179,255 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>195</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B103" s="3">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9345,10 +9796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE6941-7806-3846-9E89-FFA2416775F2}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -10051,254 +10502,323 @@
     </row>
     <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>170</v>
+        <v>437</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B101" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>189</v>
+        <v>151</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>62</v>
+        <v>188</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>400</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>394</v>
+        <v>202</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10309,10 +10829,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DAC041-37A0-CC45-933E-8E0EC3CE87DA}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -10955,254 +11475,323 @@
     </row>
     <row r="83" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>170</v>
+        <v>437</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>151</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="88" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>404</v>
+        <v>188</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>401</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>46</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>394</v>
+        <v>202</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -11213,10 +11802,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3F8D73-A2F8-A34D-BAA9-8CA076BBD188}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A53" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -11940,289 +12529,358 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="104" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="109" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="110" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B110" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="111" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="134" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="135" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="136" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>399</v>
       </c>
     </row>
@@ -12233,10 +12891,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF2E6C6-AC83-AD43-B24B-8118763EC5A4}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -12858,273 +13516,342 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="89" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="100" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="102" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="115" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>336</v>
       </c>
     </row>
@@ -13135,10 +13862,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D440C8FC-FCC1-A240-91E3-288B715C9C66}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -13823,297 +14550,366 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>195</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B106" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="109" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B110" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="111" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="123" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="124" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="125" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="126" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14124,10 +14920,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1A7AA-D469-814C-86B3-A8D7D6B424B5}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD27"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -14819,297 +15615,366 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>150</v>
+        <v>432</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>195</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B106" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="109" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B110" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="66" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="111" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="123" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="124" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="125" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="126" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15120,10 +15985,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C165AD-8F20-F342-8EE0-C1843FC10E3A}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A68" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -15792,273 +16657,342 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="95" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="96" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="100" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B103" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="104" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="106" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="107" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B107" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="108" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="109" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>284</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="124" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="125" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="126" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>336</v>
       </c>
     </row>

--- a/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC87D5-9117-4A4B-8853-2B41CE3CD3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF0712-16E7-984D-A236-07FED6968BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="500" windowWidth="28620" windowHeight="20280" firstSheet="5" activeTab="14" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
+    <workbookView xWindow="1620" yWindow="760" windowWidth="28620" windowHeight="17580" activeTab="4" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="472">
   <si>
     <t>Question</t>
   </si>
@@ -722,12 +722,6 @@
     <t>Biological child</t>
   </si>
   <si>
-    <t>Is the other biological parent of this relative one of the partners you have entered?</t>
-  </si>
-  <si>
-    <t>Is the other biological parent of this relative one of the partners you have entered? Selected</t>
-  </si>
-  <si>
     <t>If the partner name is not visible in the dropdown, that means the partner record is incomplete on the home page. Please return to the homepage and complete the partner record(s) before completing the children records.</t>
   </si>
   <si>
@@ -1457,13 +1451,25 @@
     <t>Has this relative ever been diagnosed with one of the benign tumors listed below?</t>
   </si>
   <si>
-    <t>Yes, a partner I have NOT yet reported in this questionnaire</t>
-  </si>
-  <si>
     <t>FHQ Siblings: ParticipantSiblingFirstName</t>
   </si>
   <si>
     <t>FHQ Aunt/Uncle: ParticipantUncleFirstName</t>
+  </si>
+  <si>
+    <t>Are any of the following individuals a biological parent of this child?</t>
+  </si>
+  <si>
+    <t>Are any of the following individuals a biological parent of this child? Selected</t>
+  </si>
+  <si>
+    <t>Which of the following individuals is a biological parent of this child?</t>
+  </si>
+  <si>
+    <t>Which of the following individuals is a biological parent of this child? Selected</t>
+  </si>
+  <si>
+    <t>A partner I have reported in this questionnaire</t>
   </si>
 </sst>
 </file>
@@ -1514,12 +1520,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1560,7 +1572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1592,6 +1604,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,31 +1959,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2010,10 +2028,10 @@
     </row>
     <row r="12" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2077,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2090,10 +2108,10 @@
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2122,10 +2140,10 @@
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2162,10 +2180,10 @@
     </row>
     <row r="31" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -2173,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2197,15 +2215,15 @@
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -2213,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2226,10 +2244,10 @@
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2277,7 +2295,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2285,7 +2303,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2333,7 +2351,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2370,10 +2388,10 @@
     </row>
     <row r="57" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2413,15 +2431,15 @@
         <v>192</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2450,10 +2468,10 @@
     </row>
     <row r="67" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2466,31 +2484,31 @@
     </row>
     <row r="69" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>28</v>
@@ -2498,10 +2516,10 @@
     </row>
     <row r="73" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2573,34 +2591,34 @@
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.2">
@@ -2614,10 +2632,10 @@
     </row>
     <row r="12" spans="1:4" ht="44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -2663,130 +2681,130 @@
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -2799,10 +2817,10 @@
     </row>
     <row r="39" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="22" x14ac:dyDescent="0.2">
@@ -2810,7 +2828,7 @@
         <v>135</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -2831,18 +2849,18 @@
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -2855,18 +2873,18 @@
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>85</v>
@@ -2874,7 +2892,7 @@
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="3">
         <v>1900</v>
@@ -2882,7 +2900,7 @@
     </row>
     <row r="49" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>38</v>
@@ -2898,7 +2916,7 @@
     </row>
     <row r="51" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>87</v>
@@ -2914,7 +2932,7 @@
     </row>
     <row r="53" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>87</v>
@@ -2930,7 +2948,7 @@
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -2946,7 +2964,7 @@
     </row>
     <row r="57" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>132</v>
@@ -2970,7 +2988,7 @@
     </row>
     <row r="60" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>199</v>
@@ -3074,10 +3092,10 @@
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -3306,15 +3324,15 @@
     </row>
     <row r="103" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>32</v>
@@ -3322,39 +3340,39 @@
     </row>
     <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B109" s="3">
         <v>1900</v>
@@ -3362,16 +3380,16 @@
     </row>
     <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -3489,47 +3507,47 @@
         <v>63</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3601,34 +3619,34 @@
     </row>
     <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -3641,10 +3659,10 @@
     </row>
     <row r="12" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -3689,87 +3707,87 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -3777,50 +3795,50 @@
     </row>
     <row r="31" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -3833,10 +3851,10 @@
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -3844,7 +3862,7 @@
         <v>135</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -3865,18 +3883,18 @@
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -3889,7 +3907,7 @@
     </row>
     <row r="46" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>32</v>
@@ -3897,7 +3915,7 @@
     </row>
     <row r="47" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>85</v>
@@ -3905,7 +3923,7 @@
     </row>
     <row r="48" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="3">
         <v>1900</v>
@@ -3913,7 +3931,7 @@
     </row>
     <row r="49" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>38</v>
@@ -3929,7 +3947,7 @@
     </row>
     <row r="51" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>87</v>
@@ -3945,7 +3963,7 @@
     </row>
     <row r="53" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>87</v>
@@ -3961,7 +3979,7 @@
     </row>
     <row r="55" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -3977,7 +3995,7 @@
     </row>
     <row r="57" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>132</v>
@@ -4001,7 +4019,7 @@
     </row>
     <row r="60" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>199</v>
@@ -4105,10 +4123,10 @@
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4337,15 +4355,15 @@
     </row>
     <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>32</v>
@@ -4353,39 +4371,39 @@
     </row>
     <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B109" s="3">
         <v>1900</v>
@@ -4393,16 +4411,16 @@
     </row>
     <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -4520,47 +4538,47 @@
         <v>63</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4632,34 +4650,34 @@
     </row>
     <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4672,10 +4690,10 @@
     </row>
     <row r="12" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4720,79 +4738,79 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -4800,39 +4818,39 @@
     </row>
     <row r="31" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -4840,18 +4858,18 @@
     </row>
     <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4864,10 +4882,10 @@
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4875,7 +4893,7 @@
         <v>135</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4896,18 +4914,18 @@
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4920,7 +4938,7 @@
     </row>
     <row r="46" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>32</v>
@@ -4928,7 +4946,7 @@
     </row>
     <row r="47" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>85</v>
@@ -4936,7 +4954,7 @@
     </row>
     <row r="48" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="3">
         <v>1900</v>
@@ -4944,7 +4962,7 @@
     </row>
     <row r="49" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>38</v>
@@ -4960,7 +4978,7 @@
     </row>
     <row r="51" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>87</v>
@@ -4976,7 +4994,7 @@
     </row>
     <row r="53" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>87</v>
@@ -4992,7 +5010,7 @@
     </row>
     <row r="55" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -5008,7 +5026,7 @@
     </row>
     <row r="57" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>132</v>
@@ -5032,7 +5050,7 @@
     </row>
     <row r="60" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>199</v>
@@ -5136,10 +5154,10 @@
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -5364,15 +5382,15 @@
     </row>
     <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>32</v>
@@ -5380,39 +5398,39 @@
     </row>
     <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B109" s="3">
         <v>1900</v>
@@ -5420,15 +5438,15 @@
     </row>
     <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -5545,47 +5563,47 @@
         <v>63</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5657,34 +5675,34 @@
     </row>
     <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -5697,10 +5715,10 @@
     </row>
     <row r="12" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -5745,23 +5763,23 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>38</v>
@@ -5769,71 +5787,71 @@
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -5841,39 +5859,39 @@
     </row>
     <row r="31" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -5881,18 +5899,18 @@
     </row>
     <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -5905,10 +5923,10 @@
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -5916,7 +5934,7 @@
         <v>135</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -5937,18 +5955,18 @@
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -5961,7 +5979,7 @@
     </row>
     <row r="46" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>32</v>
@@ -5969,7 +5987,7 @@
     </row>
     <row r="47" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>85</v>
@@ -5977,7 +5995,7 @@
     </row>
     <row r="48" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="3">
         <v>1900</v>
@@ -5985,7 +6003,7 @@
     </row>
     <row r="49" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>38</v>
@@ -6001,7 +6019,7 @@
     </row>
     <row r="51" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>87</v>
@@ -6017,7 +6035,7 @@
     </row>
     <row r="53" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>87</v>
@@ -6033,7 +6051,7 @@
     </row>
     <row r="55" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>32</v>
@@ -6049,7 +6067,7 @@
     </row>
     <row r="57" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>132</v>
@@ -6073,7 +6091,7 @@
     </row>
     <row r="60" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>199</v>
@@ -6177,10 +6195,10 @@
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -6409,15 +6427,15 @@
     </row>
     <row r="103" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>32</v>
@@ -6425,39 +6443,39 @@
     </row>
     <row r="105" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B109" s="3">
         <v>1900</v>
@@ -6465,16 +6483,16 @@
     </row>
     <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="66" x14ac:dyDescent="0.2">
@@ -6592,47 +6610,47 @@
         <v>63</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6704,34 +6722,34 @@
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.2">
@@ -6745,10 +6763,10 @@
     </row>
     <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -6810,18 +6828,18 @@
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -6829,12 +6847,12 @@
         <v>210</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>38</v>
@@ -6842,7 +6860,7 @@
     </row>
     <row r="24" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B24" s="3"/>
     </row>
@@ -6851,12 +6869,12 @@
         <v>213</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -6869,18 +6887,18 @@
     </row>
     <row r="28" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -6888,7 +6906,7 @@
         <v>135</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -6901,31 +6919,31 @@
     </row>
     <row r="32" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" ht="110" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B35" s="3">
         <v>1900</v>
@@ -6933,7 +6951,7 @@
     </row>
     <row r="36" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>38</v>
@@ -6949,7 +6967,7 @@
     </row>
     <row r="38" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>87</v>
@@ -6965,7 +6983,7 @@
     </row>
     <row r="40" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>87</v>
@@ -6997,7 +7015,7 @@
     </row>
     <row r="44" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>32</v>
@@ -7013,7 +7031,7 @@
     </row>
     <row r="46" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>132</v>
@@ -7045,10 +7063,10 @@
     </row>
     <row r="50" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -7141,10 +7159,10 @@
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -7365,15 +7383,15 @@
     </row>
     <row r="91" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>32</v>
@@ -7381,39 +7399,39 @@
     </row>
     <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B97" s="3">
         <v>1900</v>
@@ -7421,15 +7439,15 @@
     </row>
     <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -7523,28 +7541,28 @@
         <v>185</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -7571,47 +7589,47 @@
         <v>63</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7623,7 +7641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90F0027-F00B-1B4B-AE3D-053640C4AD50}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -7683,26 +7701,26 @@
     </row>
     <row r="7" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" x14ac:dyDescent="0.2">
@@ -7716,10 +7734,10 @@
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -7781,31 +7799,31 @@
     </row>
     <row r="19" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -7813,51 +7831,51 @@
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>38</v>
@@ -7865,38 +7883,38 @@
     </row>
     <row r="30" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -7904,12 +7922,12 @@
         <v>210</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>38</v>
@@ -7917,7 +7935,7 @@
     </row>
     <row r="37" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B37" s="3">
         <v>1900</v>
@@ -7928,12 +7946,12 @@
         <v>213</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -7949,18 +7967,18 @@
     </row>
     <row r="41" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -7968,7 +7986,7 @@
         <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -7981,23 +7999,23 @@
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>85</v>
@@ -8005,7 +8023,7 @@
     </row>
     <row r="48" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="3">
         <v>1900</v>
@@ -8013,7 +8031,7 @@
     </row>
     <row r="49" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>38</v>
@@ -8029,7 +8047,7 @@
     </row>
     <row r="51" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>31</v>
@@ -8045,7 +8063,7 @@
     </row>
     <row r="53" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>31</v>
@@ -8077,7 +8095,7 @@
     </row>
     <row r="57" spans="1:2" s="7" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>32</v>
@@ -8093,7 +8111,7 @@
     </row>
     <row r="59" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>132</v>
@@ -8125,10 +8143,10 @@
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -8221,10 +8239,10 @@
     </row>
     <row r="75" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -8445,15 +8463,15 @@
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>32</v>
@@ -8461,39 +8479,39 @@
     </row>
     <row r="106" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B110" s="3">
         <v>1900</v>
@@ -8501,16 +8519,16 @@
     </row>
     <row r="111" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -8604,28 +8622,28 @@
         <v>185</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -8652,47 +8670,47 @@
         <v>63</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8960,7 +8978,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -8989,7 +9007,7 @@
     </row>
     <row r="38" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>85</v>
@@ -9101,7 +9119,7 @@
     </row>
     <row r="52" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -9237,10 +9255,10 @@
     </row>
     <row r="69" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -9433,15 +9451,15 @@
     </row>
     <row r="95" spans="1:2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>32</v>
@@ -9449,39 +9467,39 @@
     </row>
     <row r="97" spans="1:2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B101" s="3">
         <v>1900</v>
@@ -9489,16 +9507,16 @@
     </row>
     <row r="102" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -9716,42 +9734,42 @@
     </row>
     <row r="131" spans="1:2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -9847,10 +9865,10 @@
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -9898,7 +9916,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -9928,7 +9946,7 @@
         <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -9981,7 +9999,7 @@
     </row>
     <row r="27" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>85</v>
@@ -10093,42 +10111,42 @@
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -10224,10 +10242,10 @@
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -10240,10 +10258,10 @@
     </row>
     <row r="12" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -10288,27 +10306,27 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>106</v>
@@ -10316,27 +10334,27 @@
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>105</v>
@@ -10352,7 +10370,7 @@
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>118</v>
@@ -10384,18 +10402,18 @@
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -10408,7 +10426,7 @@
     </row>
     <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -10416,7 +10434,7 @@
     </row>
     <row r="37" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>85</v>
@@ -10424,7 +10442,7 @@
     </row>
     <row r="38" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="3">
         <v>1900</v>
@@ -10432,7 +10450,7 @@
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>38</v>
@@ -10448,7 +10466,7 @@
     </row>
     <row r="41" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>87</v>
@@ -10464,7 +10482,7 @@
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>87</v>
@@ -10480,7 +10498,7 @@
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -10496,7 +10514,7 @@
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>132</v>
@@ -10520,7 +10538,7 @@
     </row>
     <row r="50" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>199</v>
@@ -10616,10 +10634,10 @@
     </row>
     <row r="62" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -10844,15 +10862,15 @@
     </row>
     <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>32</v>
@@ -10860,31 +10878,31 @@
     </row>
     <row r="94" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B97" s="3">
         <v>1900</v>
@@ -10892,15 +10910,15 @@
     </row>
     <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -11009,7 +11027,7 @@
         <v>148</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11065,7 +11083,7 @@
         <v>194</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11073,7 +11091,7 @@
         <v>197</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11118,42 +11136,42 @@
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -11249,10 +11267,10 @@
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11265,10 +11283,10 @@
     </row>
     <row r="12" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11313,27 +11331,27 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>106</v>
@@ -11341,23 +11359,23 @@
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>38</v>
@@ -11365,15 +11383,15 @@
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>105</v>
@@ -11389,10 +11407,10 @@
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -11400,7 +11418,7 @@
         <v>135</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -11421,18 +11439,18 @@
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11445,7 +11463,7 @@
     </row>
     <row r="36" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>32</v>
@@ -11453,7 +11471,7 @@
     </row>
     <row r="37" spans="1:2" ht="110" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>85</v>
@@ -11461,7 +11479,7 @@
     </row>
     <row r="38" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="3">
         <v>1900</v>
@@ -11469,7 +11487,7 @@
     </row>
     <row r="39" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>38</v>
@@ -11485,7 +11503,7 @@
     </row>
     <row r="41" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
@@ -11501,7 +11519,7 @@
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>31</v>
@@ -11517,7 +11535,7 @@
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>32</v>
@@ -11533,7 +11551,7 @@
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>132</v>
@@ -11557,7 +11575,7 @@
     </row>
     <row r="50" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>199</v>
@@ -11653,10 +11671,10 @@
     </row>
     <row r="62" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -11881,15 +11899,15 @@
     </row>
     <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>32</v>
@@ -11897,39 +11915,39 @@
     </row>
     <row r="94" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B98" s="3">
         <v>1900</v>
@@ -11937,15 +11955,15 @@
     </row>
     <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -12054,7 +12072,7 @@
         <v>148</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12094,7 +12112,7 @@
         <v>191</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12110,7 +12128,7 @@
         <v>194</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12118,7 +12136,7 @@
         <v>197</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12158,47 +12176,47 @@
         <v>63</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -12208,10 +12226,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3F8D73-A2F8-A34D-BAA9-8CA076BBD188}">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -12294,10 +12312,10 @@
     </row>
     <row r="10" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12377,7 +12395,7 @@
         <v>208</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12385,7 +12403,7 @@
         <v>209</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12393,7 +12411,7 @@
         <v>210</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -12441,10 +12459,10 @@
     </row>
     <row r="29" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -12465,7 +12483,7 @@
     </row>
     <row r="32" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>85</v>
@@ -12481,7 +12499,7 @@
     </row>
     <row r="34" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>87</v>
@@ -12519,791 +12537,807 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>223</v>
+        <v>468</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="13" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>32</v>
+      <c r="B46" s="12" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>22</v>
+        <v>201</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B59" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="5" customFormat="1" ht="88" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="5" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>431</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="75" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="77" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1900</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1900</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="90" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1900</v>
+        <v>176</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B99" s="3">
-        <v>1900</v>
+        <v>412</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>146</v>
+        <v>416</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>146</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B111" s="3">
-        <v>1900</v>
+        <v>181</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="44" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" s="3">
+    <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="66" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>66</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>420</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>43</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>378</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>207</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="22" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>382</v>
+      <c r="B140" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -13383,10 +13417,10 @@
     </row>
     <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -13394,7 +13428,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -13431,31 +13465,31 @@
     </row>
     <row r="14" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>38</v>
@@ -13463,12 +13497,12 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>58</v>
@@ -13484,18 +13518,18 @@
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -13503,7 +13537,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -13516,7 +13550,7 @@
     </row>
     <row r="25" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>85</v>
@@ -13524,7 +13558,7 @@
     </row>
     <row r="26" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B26" s="3">
         <v>1900</v>
@@ -13532,7 +13566,7 @@
     </row>
     <row r="27" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
@@ -13548,7 +13582,7 @@
     </row>
     <row r="29" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>87</v>
@@ -13564,7 +13598,7 @@
     </row>
     <row r="31" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>87</v>
@@ -13580,7 +13614,7 @@
     </row>
     <row r="33" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
@@ -13628,10 +13662,10 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -13724,10 +13758,10 @@
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -13948,15 +13982,15 @@
     </row>
     <row r="80" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>32</v>
@@ -13964,39 +13998,39 @@
     </row>
     <row r="82" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B86" s="3">
         <v>1900</v>
@@ -14004,15 +14038,15 @@
     </row>
     <row r="87" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -14111,15 +14145,15 @@
     </row>
     <row r="101" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -14127,34 +14161,34 @@
     </row>
     <row r="103" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -14162,7 +14196,7 @@
         <v>39</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -14170,7 +14204,7 @@
         <v>40</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -14202,47 +14236,47 @@
         <v>63</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -14315,18 +14349,18 @@
     </row>
     <row r="7" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -14334,7 +14368,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -14379,23 +14413,23 @@
     </row>
     <row r="15" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>38</v>
@@ -14403,33 +14437,33 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -14437,33 +14471,33 @@
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
@@ -14479,34 +14513,34 @@
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -14519,7 +14553,7 @@
     </row>
     <row r="34" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>85</v>
@@ -14527,7 +14561,7 @@
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B35" s="3">
         <v>1900</v>
@@ -14543,7 +14577,7 @@
     </row>
     <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>87</v>
@@ -14559,7 +14593,7 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>87</v>
@@ -14575,7 +14609,7 @@
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -14623,10 +14657,10 @@
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -14727,10 +14761,10 @@
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -14951,15 +14985,15 @@
     </row>
     <row r="89" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>32</v>
@@ -14967,39 +15001,39 @@
     </row>
     <row r="91" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B95" s="3">
         <v>1900</v>
@@ -15007,15 +15041,15 @@
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -15114,15 +15148,15 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -15130,26 +15164,26 @@
     </row>
     <row r="112" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -15197,7 +15231,7 @@
         <v>39</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -15205,7 +15239,7 @@
         <v>40</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -15245,68 +15279,68 @@
         <v>63</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>58</v>
@@ -15381,18 +15415,18 @@
     </row>
     <row r="7" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="44" x14ac:dyDescent="0.2">
@@ -15400,7 +15434,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -15445,24 +15479,24 @@
     </row>
     <row r="15" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="22" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>38</v>
@@ -15470,39 +15504,39 @@
     </row>
     <row r="18" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -15510,33 +15544,33 @@
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>38</v>
@@ -15552,34 +15586,34 @@
     </row>
     <row r="29" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -15592,7 +15626,7 @@
     </row>
     <row r="34" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>85</v>
@@ -15600,7 +15634,7 @@
     </row>
     <row r="35" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B35" s="3">
         <v>1900</v>
@@ -15616,7 +15650,7 @@
     </row>
     <row r="37" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>31</v>
@@ -15632,7 +15666,7 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -15648,7 +15682,7 @@
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>32</v>
@@ -15667,7 +15701,7 @@
         <v>131</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -15696,10 +15730,10 @@
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -15800,10 +15834,10 @@
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -16024,15 +16058,15 @@
     </row>
     <row r="89" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>32</v>
@@ -16040,39 +16074,39 @@
     </row>
     <row r="91" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B95" s="3">
         <v>1900</v>
@@ -16080,15 +16114,15 @@
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -16187,15 +16221,15 @@
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -16203,26 +16237,26 @@
     </row>
     <row r="112" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -16270,7 +16304,7 @@
         <v>39</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -16278,7 +16312,7 @@
         <v>40</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -16318,68 +16352,68 @@
         <v>63</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>58</v>
@@ -16454,18 +16488,18 @@
     </row>
     <row r="7" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="44" x14ac:dyDescent="0.2">
@@ -16473,7 +16507,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" x14ac:dyDescent="0.2">
@@ -16487,10 +16521,10 @@
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -16552,18 +16586,18 @@
     </row>
     <row r="19" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -16571,12 +16605,12 @@
         <v>210</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -16584,7 +16618,7 @@
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -16592,12 +16626,12 @@
         <v>213</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -16610,26 +16644,26 @@
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -16642,7 +16676,7 @@
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>85</v>
@@ -16650,7 +16684,7 @@
     </row>
     <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B32" s="3">
         <v>1900</v>
@@ -16658,7 +16692,7 @@
     </row>
     <row r="33" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>87</v>
@@ -16674,7 +16708,7 @@
     </row>
     <row r="35" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>87</v>
@@ -16706,7 +16740,7 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>32</v>
@@ -16754,10 +16788,10 @@
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -16850,10 +16884,10 @@
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -17074,15 +17108,15 @@
     </row>
     <row r="86" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>32</v>
@@ -17090,39 +17124,39 @@
     </row>
     <row r="88" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B92" s="3">
         <v>1900</v>
@@ -17130,15 +17164,15 @@
     </row>
     <row r="93" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -17237,15 +17271,15 @@
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B108" s="3">
         <v>1</v>
@@ -17253,26 +17287,26 @@
     </row>
     <row r="109" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -17320,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -17328,7 +17362,7 @@
         <v>40</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -17368,47 +17402,47 @@
         <v>63</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="44" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/FHQScenario1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF0712-16E7-984D-A236-07FED6968BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCB7FC-6E05-D442-B559-AD39BB34544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="760" windowWidth="28620" windowHeight="17580" activeTab="4" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
+    <workbookView xWindow="1620" yWindow="760" windowWidth="28620" windowHeight="17580" activeTab="7" xr2:uid="{0B804629-B76C-2342-A931-14829AE33D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="471">
   <si>
     <t>Question</t>
   </si>
@@ -1386,9 +1386,6 @@
   </si>
   <si>
     <t>Please enter one record per each family member for whom you have knowledge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter one record per each family member for whom you have knowledge. </t>
   </si>
   <si>
     <t>Please make sure you have completed all Sibling records before completing Niece/Nephew records. You can use the blue “Back to Home” button to return and edit the Sibling records if needed.</t>
@@ -2031,7 +2028,7 @@
         <v>428</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2095,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2111,7 +2108,7 @@
         <v>371</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2519,7 +2516,7 @@
         <v>373</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3324,7 @@
         <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -4358,7 +4355,7 @@
         <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -5385,7 +5382,7 @@
         <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -5827,7 +5824,7 @@
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>284</v>
@@ -6430,7 +6427,7 @@
         <v>409</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -6847,7 +6844,7 @@
         <v>210</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -6895,10 +6892,10 @@
     </row>
     <row r="29" spans="1:2" ht="88" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -7386,7 +7383,7 @@
         <v>409</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -7815,10 +7812,10 @@
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -7845,7 +7842,7 @@
     </row>
     <row r="25" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B25" s="3"/>
     </row>
@@ -7867,10 +7864,10 @@
     </row>
     <row r="28" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -7889,7 +7886,7 @@
     </row>
     <row r="31" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>310</v>
@@ -7897,7 +7894,7 @@
     </row>
     <row r="32" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B32" s="3"/>
     </row>
@@ -7922,7 +7919,7 @@
         <v>210</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -7975,10 +7972,10 @@
     </row>
     <row r="42" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -8466,7 +8463,7 @@
         <v>409</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -9454,7 +9451,7 @@
         <v>409</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -9946,7 +9943,7 @@
         <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -10354,7 +10351,7 @@
     </row>
     <row r="27" spans="1:2" ht="22" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>105</v>
@@ -10865,7 +10862,7 @@
         <v>409</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -11902,7 +11899,7 @@
         <v>409</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -12228,8 +12225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3F8D73-A2F8-A34D-BAA9-8CA076BBD188}">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -12539,18 +12536,18 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.2">
@@ -12571,10 +12568,10 @@
     </row>
     <row r="43" spans="1:2" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
@@ -12587,7 +12584,7 @@
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>361</v>
@@ -12982,7 +12979,7 @@
         <v>409</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -13985,7 +13982,7 @@
         <v>409</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -14988,7 +14985,7 @@
         <v>409</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -15355,8 +15352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1A7AA-D469-814C-86B3-A8D7D6B424B5}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -15605,7 +15602,7 @@
         <v>443</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -16061,7 +16058,7 @@
         <v>409</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -16605,7 +16602,7 @@
         <v>210</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -16652,10 +16649,10 @@
     </row>
     <row r="28" spans="1:2" ht="66" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="44" x14ac:dyDescent="0.2">
@@ -17111,7 +17108,7 @@
         <v>409</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="44" x14ac:dyDescent="0.2">
